--- a/Metodologias Ágeis/Product Backlog.xlsx
+++ b/Metodologias Ágeis/Product Backlog.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="GERAL" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SPRINT1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="SPRINT 2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Projeto Final / Módulo  3 Grupo 6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Projeto Final / Módulo  3 Grupo 2</t>
   </si>
   <si>
     <t xml:space="preserve">Prioridade</t>
@@ -48,62 +49,41 @@
   </si>
   <si>
     <t xml:space="preserve">Estruturação de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estruturar os dados a partir das perguntas feitas no MySql Workbench.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornar as perguntas visíveis via MySql Workbench.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar visualizações dos dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Através das perguntas e quer’ys adquiridas, organizar a apresentação com as dashboards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concluído</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar as perguntas analisando os dados para verificar se é possível através dos dados adquiridos.</t>
   </si>
   <si>
     <t xml:space="preserve">Estruturar os dados a partir das perguntas feitas no MySql Workbench
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tornar as perguntas visíveis via </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MySql Workbench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar visualizações dos dados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apresentação</t>
+    <t xml:space="preserve">Tornar as perguntas visíveis via DbDiagram.</t>
   </si>
   <si>
     <t xml:space="preserve">Através das perguntas e quer’ys adquiridas, organizar a apresentação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concluído</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar as perguntas analisando os dados para verificar se é possível através dos dados adquiridos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tornar as perguntas visíveis via DbDiagram.</t>
   </si>
 </sst>
 </file>
@@ -149,6 +129,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -179,10 +160,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b val="true"/>
+      <sz val="40"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -267,7 +250,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,11 +274,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,16 +361,16 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="4" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="4" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -440,7 +423,7 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="0"/>
@@ -452,7 +435,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -508,11 +491,11 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
@@ -527,6 +510,91 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="109.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="72.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="51.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
     <row r="2" customFormat="false" ht="32.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
@@ -534,80 +602,52 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="109.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="9" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="60.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Metodologias Ágeis/Product Backlog.xlsx
+++ b/Metodologias Ágeis/Product Backlog.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Metodologias Ágeis/Product Backlog.xlsx
+++ b/Metodologias Ágeis/Product Backlog.xlsx
@@ -93,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,7 +139,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="15"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,6 +154,13 @@
       <b val="true"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -241,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,6 +285,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,10 +372,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -495,7 +505,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
@@ -525,7 +535,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="109.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -580,7 +590,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
@@ -610,7 +620,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="109.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -624,7 +634,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -638,7 +648,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">

--- a/Metodologias Ágeis/Product Backlog.xlsx
+++ b/Metodologias Ágeis/Product Backlog.xlsx
@@ -139,7 +139,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -151,23 +151,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
+      <sz val="25"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="15"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="40"/>
+      <sz val="25"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -372,7 +371,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,10 +501,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
@@ -549,7 +548,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -587,10 +586,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
